--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\forkworkspace\ngle_annual_party\server\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>姓名</t>
   </si>
@@ -191,7 +196,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -226,30 +231,6 @@
     <t>손욱</t>
   </si>
   <si>
-    <t>강세권</t>
-  </si>
-  <si>
-    <r>
-      <t>운영</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="BatangChe"/>
-        <charset val="134"/>
-      </rPr>
-      <t>팀</t>
-    </r>
-  </si>
-  <si>
     <t>나금수</t>
   </si>
   <si>
@@ -265,18 +246,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="맑은 고딕"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -284,7 +259,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -300,154 +275,17 @@
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,194 +310,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -723,251 +375,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,61 +419,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1321,21 +687,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.7333333333333" defaultRowHeight="17.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="16383" width="26.7333333333333" style="1"/>
+    <col min="1" max="16383" width="26.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1346,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1354,7 +720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1362,7 +728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1683,10 +1049,10 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1695,31 +1061,27 @@
         <v>55</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="A47" s="10"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="10"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="11"/>
+      <c r="A49" s="2"/>
       <c r="B49" s="9"/>
     </row>
     <row r="50" spans="1:2">
@@ -1742,13 +1104,9 @@
       <c r="A54" s="2"/>
       <c r="B54" s="9"/>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="9"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>